--- a/Income/ECL_inc.xlsx
+++ b/Income/ECL_inc.xlsx
@@ -2184,16 +2184,16 @@
         <v>0.4119</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.4133</v>
+        <v>0.4242</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4211</v>
+        <v>0.4325</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.4293</v>
+        <v>0.4409</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.4275</v>
+        <v>0.4391</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.4545</v>
@@ -2311,16 +2311,16 @@
         <v>0.113</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1118</v>
+        <v>0.1226</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.1204</v>
+        <v>0.1319</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.1359</v>
+        <v>0.1484</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1345</v>
+        <v>0.1469</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1555</v>
@@ -2438,16 +2438,16 @@
         <v>0.0957</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1016</v>
+        <v>0.1035</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1174</v>
+        <v>0.1208</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.1342</v>
+        <v>0.139</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.1331</v>
+        <v>0.1378</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.1453</v>
@@ -2565,16 +2565,16 @@
         <v>-0.0976</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-0.0821</v>
+        <v>-0.0901</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>-0.0644</v>
+        <v>-0.0706</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.112</v>
+        <v>0.1223</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1136</v>
+        <v>0.1241</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.136</v>
@@ -2692,16 +2692,16 @@
         <v>0.1114</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.1102</v>
+        <v>0.1209</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.1222</v>
+        <v>0.1339</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.1244</v>
+        <v>0.1359</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.1237</v>
+        <v>0.1351</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.1591</v>
@@ -4319,16 +4319,16 @@
         <v>0.211</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.212</v>
+        <v>0.2161</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>0.2049</v>
+        <v>0.2083</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>0.2103</v>
+        <v>0.214</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.2053</v>
+        <v>0.2086</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0.2098</v>
@@ -4446,16 +4446,16 @@
         <v>0.1506</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.155</v>
+        <v>0.17</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>0.1699</v>
+        <v>0.1861</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>0.175</v>
+        <v>0.191</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.1764</v>
+        <v>0.1927</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0.2164</v>
